--- a/Analytics/VAC user stories.xlsx
+++ b/Analytics/VAC user stories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Module</t>
   </si>
@@ -92,9 +92,6 @@
     <t>view my appointments and their statuses</t>
   </si>
   <si>
-    <t>I can view that my appointment is confirmed or not and when I should visit the clinic</t>
-  </si>
-  <si>
     <t>view my appointment details</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>other users can view clinic info</t>
   </si>
   <si>
-    <t>address, name</t>
-  </si>
-  <si>
     <t>log in to application with login and password</t>
   </si>
   <si>
@@ -153,6 +147,30 @@
   </si>
   <si>
     <t>patients can show the time, when I can make an appointment</t>
+  </si>
+  <si>
+    <t>I can view that my appointment is confirmed by me or not and when I should visit the clinic</t>
+  </si>
+  <si>
+    <t>confirm if vaccination took place</t>
+  </si>
+  <si>
+    <t>other process members can see if vaccination took place</t>
+  </si>
+  <si>
+    <t>view appointment details</t>
+  </si>
+  <si>
+    <t>I can clarify date and time of appointment</t>
+  </si>
+  <si>
+    <t>view patient info</t>
+  </si>
+  <si>
+    <t>I can get know which vaccination patient need</t>
+  </si>
+  <si>
+    <t>address, name, type, vacination types</t>
   </si>
 </sst>
 </file>
@@ -499,19 +517,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -599,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,7 +659,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -652,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -666,10 +684,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -680,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -697,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -711,46 +729,82 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/VAC user stories.xlsx
+++ b/Analytics/VAC user stories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSC_User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annagoreva/Projects/VAC/Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD38AB9-D1D1-D048-9ECE-D4C5E7E6CFF0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Module</t>
   </si>
@@ -125,9 +126,6 @@
     <t>other process members can get know if vaccination took place</t>
   </si>
   <si>
-    <t>sex, allergies, Medical issues/disabilities, Past vaccinations</t>
-  </si>
-  <si>
     <t>Clinic</t>
   </si>
   <si>
@@ -171,12 +169,84 @@
   </si>
   <si>
     <t>address, name, type, vacination types</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>register my organization</t>
+  </si>
+  <si>
+    <t>other users can see who finances vaccination</t>
+  </si>
+  <si>
+    <t>log in into system</t>
+  </si>
+  <si>
+    <t>my vaccinations would be payed</t>
+  </si>
+  <si>
+    <t>bill invoices to sponsors (automatically or manually)</t>
+  </si>
+  <si>
+    <t>see the list of invoices</t>
+  </si>
+  <si>
+    <t>I can plan the  budjet</t>
+  </si>
+  <si>
+    <t>pay the invoices</t>
+  </si>
+  <si>
+    <t>clinics can get their remuneration</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>other users can request to enter the internship</t>
+  </si>
+  <si>
+    <t>login into system</t>
+  </si>
+  <si>
+    <t>I can see which vaccination I should have</t>
+  </si>
+  <si>
+    <t>student can learn which vaccination he/she should get</t>
+  </si>
+  <si>
+    <t>search internships and their conditions</t>
+  </si>
+  <si>
+    <t>set the list of vaccination, student should have to enter this internship</t>
+  </si>
+  <si>
+    <t>search the student by several parameters</t>
+  </si>
+  <si>
+    <t>we can get know if candidate has registered in system</t>
+  </si>
+  <si>
+    <t>view the student's info</t>
+  </si>
+  <si>
+    <t>we can get know if student has nessesary vaccinations</t>
+  </si>
+  <si>
+    <t>id, sex, full name, allergies, Medical issues/disabilities, Past vaccinations</t>
+  </si>
+  <si>
+    <t>id, full name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,7 +306,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,26 +594,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,251 +639,459 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
